--- a/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
+++ b/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
@@ -83,13 +83,13 @@
     <t>MA</t>
   </si>
   <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
     <t>TO</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>RO</t>
@@ -849,7 +849,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>40604.341</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>17009.957</v>
@@ -883,12 +883,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +914,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>40604.341</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>8504.978499999999</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>40604.341</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>10834.492</v>
@@ -1301,12 +1301,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>0</v>

--- a/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
+++ b/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="uf-qtd" sheetId="1" r:id="rId1"/>
-    <sheet name="uf-tot-arrecad" sheetId="2" r:id="rId2"/>
-    <sheet name="uf-avg-arrecad" sheetId="3" r:id="rId3"/>
-    <sheet name="uf-max-arrecad" sheetId="4" r:id="rId4"/>
-    <sheet name="uf-tx-sucesso" sheetId="5" r:id="rId5"/>
+    <sheet name="qtd" sheetId="1" r:id="rId1"/>
+    <sheet name="tot-arrecad" sheetId="2" r:id="rId2"/>
+    <sheet name="avg-arrecad" sheetId="3" r:id="rId3"/>
+    <sheet name="max-arrecad" sheetId="4" r:id="rId4"/>
+    <sheet name="tx-sucesso" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -23,7 +23,7 @@
     <t>uf</t>
   </si>
   <si>
-    <t>qty</t>
+    <t>qtd</t>
   </si>
   <si>
     <t>SP</t>
@@ -83,13 +83,13 @@
     <t>MA</t>
   </si>
   <si>
+    <t>TO</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
     <t>MT</t>
-  </si>
-  <si>
-    <t>TO</t>
   </si>
   <si>
     <t>RO</t>
@@ -849,7 +849,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>40604.341</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>17009.957</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +914,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>40604.341</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>8504.978499999999</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>40604.341</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>10834.492</v>
@@ -1301,12 +1301,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>0</v>

--- a/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
+++ b/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
@@ -83,13 +83,13 @@
     <t>MA</t>
   </si>
   <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
     <t>TO</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>RO</t>
@@ -849,7 +849,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>40604.341</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>17009.957</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +914,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>40604.341</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>8504.978499999999</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>40604.341</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>10834.492</v>
@@ -1301,12 +1301,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>0</v>

--- a/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
+++ b/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
@@ -1082,17 +1082,17 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1301,12 +1301,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>

--- a/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
+++ b/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
@@ -59,12 +59,12 @@
     <t>PI</t>
   </si>
   <si>
+    <t>RN</t>
+  </si>
+  <si>
     <t>PB</t>
   </si>
   <si>
-    <t>RN</t>
-  </si>
-  <si>
     <t>AM</t>
   </si>
   <si>
@@ -95,10 +95,10 @@
     <t>RO</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
     <t>AC</t>
-  </si>
-  <si>
-    <t>SE</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
@@ -769,7 +769,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>305614.744</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>167104.855</v>
@@ -878,17 +878,17 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>30561.4744</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>15191.35045454546</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1092,7 +1092,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1187,7 +1187,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>59248.856</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>25138.205</v>
@@ -1296,12 +1296,12 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1428,7 +1428,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>52.40000000000001</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>47.59999999999999</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>0</v>

--- a/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
+++ b/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
@@ -59,12 +59,12 @@
     <t>PI</t>
   </si>
   <si>
+    <t>PB</t>
+  </si>
+  <si>
     <t>RN</t>
   </si>
   <si>
-    <t>PB</t>
-  </si>
-  <si>
     <t>AM</t>
   </si>
   <si>
@@ -83,13 +83,13 @@
     <t>MA</t>
   </si>
   <si>
+    <t>TO</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
     <t>MT</t>
-  </si>
-  <si>
-    <t>TO</t>
   </si>
   <si>
     <t>RO</t>
@@ -769,7 +769,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>305614.744</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>167104.855</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>40604.341</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>17009.957</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -914,7 +914,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>40604.341</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>30561.4744</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>15191.35045454546</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>8504.978499999999</v>
@@ -1082,22 +1082,22 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>59248.856</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>40604.341</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>25138.205</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>10834.492</v>
@@ -1301,12 +1301,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>52.40000000000001</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>47.59999999999999</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>0</v>

--- a/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
+++ b/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
@@ -92,13 +92,13 @@
     <t>MT</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
     <t>RO</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>AC</t>
   </si>
   <si>
     <t>tot_arrecadado</t>
@@ -873,22 +873,22 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1082,17 +1082,17 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1291,17 +1291,17 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1500,7 +1500,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>

--- a/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
+++ b/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
@@ -883,12 +883,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1092,12 +1092,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1301,12 +1301,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>

--- a/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
+++ b/dados/analises/2024/excel/02-ranking-uf-tdn.xlsx
@@ -83,13 +83,13 @@
     <t>MA</t>
   </si>
   <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
     <t>TO</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>SE</t>
@@ -849,7 +849,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>40604.341</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>17009.957</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -914,7 +914,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>40604.341</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>8504.978499999999</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1092,12 +1092,12 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>40604.341</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>10834.492</v>
@@ -1291,22 +1291,22 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
